--- a/Work-Dash/planilhas/2024.xlsx
+++ b/Work-Dash/planilhas/2024.xlsx
@@ -464,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1490"/>
+  <dimension ref="A1:N1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86912,6 +86912,78 @@
       </c>
       <c r="N1490" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>25/2022</t>
+        </is>
+      </c>
+      <c r="B1491" t="inlineStr">
+        <is>
+          <t>Gasc</t>
+        </is>
+      </c>
+      <c r="C1491" t="inlineStr">
+        <is>
+          <t>Sistema02</t>
+        </is>
+      </c>
+      <c r="D1491" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="E1491" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="F1491" t="inlineStr">
+        <is>
+          <t>Outubro</t>
+        </is>
+      </c>
+      <c r="G1491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H1491" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I1491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J1491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K1491" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="L1491" t="inlineStr">
+        <is>
+          <t>sim</t>
+        </is>
+      </c>
+      <c r="M1491" t="inlineStr">
+        <is>
+          <t>Em andamento</t>
+        </is>
+      </c>
+      <c r="N1491" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -86925,7 +86997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87025,6 +87097,21 @@
         <v>45631.04634755787</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adicionado</t>
+        </is>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>45631.09003346065</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
